--- a/public/powerbi/fin.xlsx
+++ b/public/powerbi/fin.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="165">
   <si>
     <t>'MSFS'</t>
   </si>
@@ -326,6 +326,9 @@
     <t>05-APR-23</t>
   </si>
   <si>
+    <t>28-FEB-24</t>
+  </si>
+  <si>
     <t>07-MAR-23</t>
   </si>
   <si>
@@ -470,6 +473,9 @@
     <t>08-MAY-23</t>
   </si>
   <si>
+    <t>20-FEB-24</t>
+  </si>
+  <si>
     <t>27-SEP-23</t>
   </si>
   <si>
@@ -483,6 +489,9 @@
   </si>
   <si>
     <t>09-MAR-23</t>
+  </si>
+  <si>
+    <t>29-FEB-24</t>
   </si>
   <si>
     <t>21-DEC-23</t>
@@ -836,7 +845,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F276"/>
+  <dimension ref="A1:F281"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -905,7 +914,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>760.61</v>
+        <v>763.13</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1157,7 +1166,7 @@
         <v>6</v>
       </c>
       <c r="B18">
-        <v>8807.56</v>
+        <v>8809.19</v>
       </c>
       <c r="C18" t="s">
         <v>20</v>
@@ -3119,19 +3128,19 @@
         <v>29</v>
       </c>
       <c r="B118">
-        <v>1051.2</v>
+        <v>1050</v>
       </c>
       <c r="C118" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="D118" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E118" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="F118">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3139,19 +3148,19 @@
         <v>29</v>
       </c>
       <c r="B119">
-        <v>1172.99</v>
+        <v>1051.2</v>
       </c>
       <c r="C119" t="s">
-        <v>103</v>
+        <v>59</v>
       </c>
       <c r="D119" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E119" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="F119">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3159,19 +3168,19 @@
         <v>29</v>
       </c>
       <c r="B120">
-        <v>1182.98</v>
+        <v>1172.99</v>
       </c>
       <c r="C120" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="D120" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E120" t="s">
         <v>9</v>
       </c>
       <c r="F120">
-        <v>96</v>
+        <v>6</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3179,19 +3188,19 @@
         <v>29</v>
       </c>
       <c r="B121">
-        <v>1185</v>
+        <v>1182.98</v>
       </c>
       <c r="C121" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="D121" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E121" t="s">
         <v>9</v>
       </c>
       <c r="F121">
-        <v>7</v>
+        <v>96</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3199,19 +3208,19 @@
         <v>29</v>
       </c>
       <c r="B122">
-        <v>1298.24</v>
+        <v>1185</v>
       </c>
       <c r="C122" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="D122" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E122" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="F122">
-        <v>100</v>
+        <v>7</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3219,10 +3228,10 @@
         <v>29</v>
       </c>
       <c r="B123">
-        <v>1328.04</v>
+        <v>1298.24</v>
       </c>
       <c r="C123" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="D123" t="s">
         <v>34</v>
@@ -3231,7 +3240,7 @@
         <v>45</v>
       </c>
       <c r="F123">
-        <v>56</v>
+        <v>100</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3239,19 +3248,19 @@
         <v>29</v>
       </c>
       <c r="B124">
-        <v>1400.22</v>
+        <v>1328.04</v>
       </c>
       <c r="C124" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="D124" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E124" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="F124">
-        <v>4</v>
+        <v>56</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3259,19 +3268,19 @@
         <v>29</v>
       </c>
       <c r="B125">
-        <v>1425.74</v>
+        <v>1400.22</v>
       </c>
       <c r="C125" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="D125" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E125" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="F125">
-        <v>165</v>
+        <v>4</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3279,19 +3288,19 @@
         <v>29</v>
       </c>
       <c r="B126">
-        <v>1440</v>
+        <v>1425.74</v>
       </c>
       <c r="C126" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="D126" t="s">
         <v>34</v>
       </c>
       <c r="E126" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F126">
-        <v>28</v>
+        <v>165</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3299,19 +3308,19 @@
         <v>29</v>
       </c>
       <c r="B127">
-        <v>1490</v>
+        <v>1440</v>
       </c>
       <c r="C127" t="s">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="D127" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E127" t="s">
         <v>42</v>
       </c>
       <c r="F127">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3319,7 +3328,7 @@
         <v>29</v>
       </c>
       <c r="B128">
-        <v>1493.03</v>
+        <v>1490</v>
       </c>
       <c r="C128" t="s">
         <v>106</v>
@@ -3328,10 +3337,10 @@
         <v>38</v>
       </c>
       <c r="E128" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="F128">
-        <v>46</v>
+        <v>7</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3339,19 +3348,19 @@
         <v>29</v>
       </c>
       <c r="B129">
-        <v>1508.4</v>
+        <v>1493.03</v>
       </c>
       <c r="C129" t="s">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="D129" t="s">
         <v>38</v>
       </c>
       <c r="E129" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="F129">
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3359,19 +3368,19 @@
         <v>29</v>
       </c>
       <c r="B130">
-        <v>1516</v>
+        <v>1508.4</v>
       </c>
       <c r="C130" t="s">
-        <v>107</v>
+        <v>39</v>
       </c>
       <c r="D130" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E130" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="F130">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3379,19 +3388,19 @@
         <v>29</v>
       </c>
       <c r="B131">
-        <v>1624</v>
+        <v>1516</v>
       </c>
       <c r="C131" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D131" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E131" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="F131">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3399,19 +3408,19 @@
         <v>29</v>
       </c>
       <c r="B132">
-        <v>1632</v>
+        <v>1624</v>
       </c>
       <c r="C132" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="D132" t="s">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="E132" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F132">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3419,19 +3428,19 @@
         <v>29</v>
       </c>
       <c r="B133">
-        <v>1639.79</v>
+        <v>1632</v>
       </c>
       <c r="C133" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="D133" t="s">
-        <v>38</v>
+        <v>109</v>
       </c>
       <c r="E133" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="F133">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3439,19 +3448,19 @@
         <v>29</v>
       </c>
       <c r="B134">
-        <v>1640.22</v>
+        <v>1639.79</v>
       </c>
       <c r="C134" t="s">
-        <v>109</v>
+        <v>56</v>
       </c>
       <c r="D134" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="E134" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="F134">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3459,19 +3468,19 @@
         <v>29</v>
       </c>
       <c r="B135">
-        <v>1642.75</v>
+        <v>1640.22</v>
       </c>
       <c r="C135" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="D135" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="E135" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="F135">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3479,19 +3488,19 @@
         <v>29</v>
       </c>
       <c r="B136">
-        <v>1659</v>
+        <v>1642.75</v>
       </c>
       <c r="C136" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="D136" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="E136" t="s">
         <v>9</v>
       </c>
       <c r="F136">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3499,10 +3508,10 @@
         <v>29</v>
       </c>
       <c r="B137">
-        <v>1728.45</v>
+        <v>1659</v>
       </c>
       <c r="C137" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D137" t="s">
         <v>38</v>
@@ -3511,7 +3520,7 @@
         <v>9</v>
       </c>
       <c r="F137">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3519,19 +3528,19 @@
         <v>29</v>
       </c>
       <c r="B138">
-        <v>1752</v>
+        <v>1728.45</v>
       </c>
       <c r="C138" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="D138" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E138" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="F138">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3539,19 +3548,19 @@
         <v>29</v>
       </c>
       <c r="B139">
-        <v>1807.65</v>
+        <v>1752</v>
       </c>
       <c r="C139" t="s">
         <v>111</v>
       </c>
       <c r="D139" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E139" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="F139">
-        <v>178</v>
+        <v>6</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3559,19 +3568,19 @@
         <v>29</v>
       </c>
       <c r="B140">
-        <v>1840</v>
+        <v>1772.06</v>
       </c>
       <c r="C140" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="D140" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E140" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F140">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3579,19 +3588,19 @@
         <v>29</v>
       </c>
       <c r="B141">
-        <v>1866.96</v>
+        <v>1807.65</v>
       </c>
       <c r="C141" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="D141" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E141" t="s">
         <v>9</v>
       </c>
       <c r="F141">
-        <v>4</v>
+        <v>178</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3599,10 +3608,10 @@
         <v>29</v>
       </c>
       <c r="B142">
-        <v>1871.01</v>
+        <v>1840</v>
       </c>
       <c r="C142" t="s">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="D142" t="s">
         <v>38</v>
@@ -3611,7 +3620,7 @@
         <v>42</v>
       </c>
       <c r="F142">
-        <v>77</v>
+        <v>4</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3619,16 +3628,16 @@
         <v>29</v>
       </c>
       <c r="B143">
-        <v>1888.5</v>
+        <v>1866.96</v>
       </c>
       <c r="C143" t="s">
-        <v>7</v>
+        <v>105</v>
       </c>
       <c r="D143" t="s">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="E143" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="F143">
         <v>4</v>
@@ -3639,19 +3648,19 @@
         <v>29</v>
       </c>
       <c r="B144">
-        <v>1946.24</v>
+        <v>1871.01</v>
       </c>
       <c r="C144" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="D144" t="s">
         <v>38</v>
       </c>
       <c r="E144" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="F144">
-        <v>7</v>
+        <v>77</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3659,19 +3668,19 @@
         <v>29</v>
       </c>
       <c r="B145">
-        <v>1964.64</v>
+        <v>1888.5</v>
       </c>
       <c r="C145" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="D145" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="E145" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="F145">
-        <v>85</v>
+        <v>4</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3679,10 +3688,10 @@
         <v>29</v>
       </c>
       <c r="B146">
-        <v>1987.2</v>
+        <v>1946.24</v>
       </c>
       <c r="C146" t="s">
-        <v>113</v>
+        <v>11</v>
       </c>
       <c r="D146" t="s">
         <v>38</v>
@@ -3691,7 +3700,7 @@
         <v>9</v>
       </c>
       <c r="F146">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3699,19 +3708,19 @@
         <v>29</v>
       </c>
       <c r="B147">
-        <v>2075.87</v>
+        <v>1964.64</v>
       </c>
       <c r="C147" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="D147" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E147" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="F147">
-        <v>24</v>
+        <v>85</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3719,10 +3728,10 @@
         <v>29</v>
       </c>
       <c r="B148">
-        <v>2100</v>
+        <v>1987.2</v>
       </c>
       <c r="C148" t="s">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="D148" t="s">
         <v>38</v>
@@ -3731,7 +3740,7 @@
         <v>9</v>
       </c>
       <c r="F148">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3739,10 +3748,10 @@
         <v>29</v>
       </c>
       <c r="B149">
-        <v>2111.7</v>
+        <v>2075.87</v>
       </c>
       <c r="C149" t="s">
-        <v>114</v>
+        <v>61</v>
       </c>
       <c r="D149" t="s">
         <v>38</v>
@@ -3751,7 +3760,7 @@
         <v>9</v>
       </c>
       <c r="F149">
-        <v>144</v>
+        <v>24</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3759,19 +3768,19 @@
         <v>29</v>
       </c>
       <c r="B150">
-        <v>2241.12</v>
+        <v>2100</v>
       </c>
       <c r="C150" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="D150" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E150" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="F150">
-        <v>56</v>
+        <v>13</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3779,19 +3788,19 @@
         <v>29</v>
       </c>
       <c r="B151">
-        <v>2266.2</v>
+        <v>2111.7</v>
       </c>
       <c r="C151" t="s">
         <v>115</v>
       </c>
       <c r="D151" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E151" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="F151">
-        <v>3</v>
+        <v>144</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3799,19 +3808,19 @@
         <v>29</v>
       </c>
       <c r="B152">
-        <v>2304.16</v>
+        <v>2241.12</v>
       </c>
       <c r="C152" t="s">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="D152" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E152" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="F152">
-        <v>7</v>
+        <v>56</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3819,19 +3828,19 @@
         <v>29</v>
       </c>
       <c r="B153">
-        <v>2472.24</v>
+        <v>2266.2</v>
       </c>
       <c r="C153" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D153" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E153" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="F153">
-        <v>31</v>
+        <v>3</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3839,19 +3848,19 @@
         <v>29</v>
       </c>
       <c r="B154">
-        <v>2584</v>
+        <v>2304.16</v>
       </c>
       <c r="C154" t="s">
-        <v>33</v>
+        <v>117</v>
       </c>
       <c r="D154" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E154" t="s">
         <v>9</v>
       </c>
       <c r="F154">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3859,19 +3868,19 @@
         <v>29</v>
       </c>
       <c r="B155">
-        <v>2639.11</v>
+        <v>2472.24</v>
       </c>
       <c r="C155" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D155" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="E155" t="s">
         <v>9</v>
       </c>
       <c r="F155">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3879,19 +3888,19 @@
         <v>29</v>
       </c>
       <c r="B156">
-        <v>2662.2</v>
+        <v>2584</v>
       </c>
       <c r="C156" t="s">
-        <v>118</v>
+        <v>33</v>
       </c>
       <c r="D156" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E156" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="F156">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3899,19 +3908,19 @@
         <v>29</v>
       </c>
       <c r="B157">
-        <v>2812.62</v>
+        <v>2639.11</v>
       </c>
       <c r="C157" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D157" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="E157" t="s">
         <v>9</v>
       </c>
       <c r="F157">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3919,19 +3928,19 @@
         <v>29</v>
       </c>
       <c r="B158">
-        <v>2828.49</v>
+        <v>2662.2</v>
       </c>
       <c r="C158" t="s">
-        <v>71</v>
+        <v>119</v>
       </c>
       <c r="D158" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E158" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F158">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3939,19 +3948,19 @@
         <v>29</v>
       </c>
       <c r="B159">
-        <v>2832.94</v>
+        <v>2812.62</v>
       </c>
       <c r="C159" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D159" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E159" t="s">
         <v>9</v>
       </c>
       <c r="F159">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3959,19 +3968,19 @@
         <v>29</v>
       </c>
       <c r="B160">
-        <v>2938.35</v>
+        <v>2828.49</v>
       </c>
       <c r="C160" t="s">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="D160" t="s">
         <v>38</v>
       </c>
       <c r="E160" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="F160">
-        <v>140</v>
+        <v>19</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3979,19 +3988,19 @@
         <v>29</v>
       </c>
       <c r="B161">
-        <v>2961</v>
+        <v>2832.94</v>
       </c>
       <c r="C161" t="s">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="D161" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E161" t="s">
         <v>9</v>
       </c>
       <c r="F161">
-        <v>91</v>
+        <v>43</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3999,19 +4008,19 @@
         <v>29</v>
       </c>
       <c r="B162">
-        <v>3032</v>
+        <v>2938.35</v>
       </c>
       <c r="C162" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="D162" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E162" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="F162">
-        <v>16</v>
+        <v>140</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4019,19 +4028,19 @@
         <v>29</v>
       </c>
       <c r="B163">
-        <v>3104.46</v>
+        <v>2961</v>
       </c>
       <c r="C163" t="s">
-        <v>119</v>
+        <v>70</v>
       </c>
       <c r="D163" t="s">
-        <v>120</v>
+        <v>47</v>
       </c>
       <c r="E163" t="s">
         <v>9</v>
       </c>
       <c r="F163">
-        <v>1</v>
+        <v>91</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4039,19 +4048,19 @@
         <v>29</v>
       </c>
       <c r="B164">
-        <v>3168</v>
+        <v>3032</v>
       </c>
       <c r="C164" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="D164" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="E164" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="F164">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4059,19 +4068,19 @@
         <v>29</v>
       </c>
       <c r="B165">
-        <v>3239.11</v>
+        <v>3104.46</v>
       </c>
       <c r="C165" t="s">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="D165" t="s">
-        <v>41</v>
+        <v>121</v>
       </c>
       <c r="E165" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="F165">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4079,16 +4088,16 @@
         <v>29</v>
       </c>
       <c r="B166">
-        <v>3250</v>
+        <v>3168</v>
       </c>
       <c r="C166" t="s">
         <v>122</v>
       </c>
       <c r="D166" t="s">
-        <v>123</v>
+        <v>44</v>
       </c>
       <c r="E166" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="F166">
         <v>1</v>
@@ -4099,19 +4108,19 @@
         <v>29</v>
       </c>
       <c r="B167">
-        <v>3264</v>
+        <v>3239.11</v>
       </c>
       <c r="C167" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="D167" t="s">
-        <v>108</v>
+        <v>41</v>
       </c>
       <c r="E167" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F167">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4119,19 +4128,19 @@
         <v>29</v>
       </c>
       <c r="B168">
-        <v>3300.5</v>
+        <v>3250</v>
       </c>
       <c r="C168" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="D168" t="s">
-        <v>38</v>
+        <v>124</v>
       </c>
       <c r="E168" t="s">
         <v>9</v>
       </c>
       <c r="F168">
-        <v>140</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4139,19 +4148,19 @@
         <v>29</v>
       </c>
       <c r="B169">
-        <v>3420</v>
+        <v>3264</v>
       </c>
       <c r="C169" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="D169" t="s">
-        <v>38</v>
+        <v>109</v>
       </c>
       <c r="E169" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="F169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4159,19 +4168,19 @@
         <v>29</v>
       </c>
       <c r="B170">
-        <v>3457.39</v>
+        <v>3300.5</v>
       </c>
       <c r="C170" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="D170" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="E170" t="s">
         <v>9</v>
       </c>
       <c r="F170">
-        <v>5</v>
+        <v>140</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4179,19 +4188,19 @@
         <v>29</v>
       </c>
       <c r="B171">
-        <v>3738.6</v>
+        <v>3420</v>
       </c>
       <c r="C171" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D171" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E171" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="F171">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4199,19 +4208,19 @@
         <v>29</v>
       </c>
       <c r="B172">
-        <v>3777</v>
+        <v>3457.39</v>
       </c>
       <c r="C172" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="D172" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="E172" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="F172">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4219,19 +4228,19 @@
         <v>29</v>
       </c>
       <c r="B173">
-        <v>3790</v>
+        <v>3738.6</v>
       </c>
       <c r="C173" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="D173" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="E173" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="F173">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4239,19 +4248,19 @@
         <v>29</v>
       </c>
       <c r="B174">
-        <v>3846.48</v>
+        <v>3777</v>
       </c>
       <c r="C174" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="D174" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="E174" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="F174">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4259,16 +4268,16 @@
         <v>29</v>
       </c>
       <c r="B175">
-        <v>4147.2</v>
+        <v>3790</v>
       </c>
       <c r="C175" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="D175" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="E175" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="F175">
         <v>2</v>
@@ -4279,19 +4288,19 @@
         <v>29</v>
       </c>
       <c r="B176">
-        <v>4243.2</v>
+        <v>3846.48</v>
       </c>
       <c r="C176" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D176" t="s">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="E176" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="F176">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4299,19 +4308,19 @@
         <v>29</v>
       </c>
       <c r="B177">
-        <v>4555.2</v>
+        <v>4147.2</v>
       </c>
       <c r="C177" t="s">
         <v>51</v>
       </c>
       <c r="D177" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="E177" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="F177">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4319,19 +4328,19 @@
         <v>29</v>
       </c>
       <c r="B178">
-        <v>4710.38</v>
+        <v>4243.2</v>
       </c>
       <c r="C178" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="D178" t="s">
-        <v>47</v>
+        <v>109</v>
       </c>
       <c r="E178" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="F178">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4339,19 +4348,19 @@
         <v>29</v>
       </c>
       <c r="B179">
-        <v>4833.02</v>
+        <v>4555.2</v>
       </c>
       <c r="C179" t="s">
-        <v>128</v>
+        <v>51</v>
       </c>
       <c r="D179" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="E179" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="F179">
-        <v>52</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4359,19 +4368,19 @@
         <v>29</v>
       </c>
       <c r="B180">
-        <v>4920</v>
+        <v>4710.38</v>
       </c>
       <c r="C180" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D180" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E180" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="F180">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4379,19 +4388,19 @@
         <v>29</v>
       </c>
       <c r="B181">
-        <v>5059</v>
+        <v>4833.02</v>
       </c>
       <c r="C181" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="D181" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E181" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="F181">
-        <v>7</v>
+        <v>52</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4399,19 +4408,19 @@
         <v>29</v>
       </c>
       <c r="B182">
-        <v>5116.5</v>
+        <v>4920</v>
       </c>
       <c r="C182" t="s">
         <v>130</v>
       </c>
       <c r="D182" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E182" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="F182">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4419,19 +4428,19 @@
         <v>29</v>
       </c>
       <c r="B183">
-        <v>5184</v>
+        <v>5059</v>
       </c>
       <c r="C183" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="D183" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E183" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F183">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4439,19 +4448,19 @@
         <v>29</v>
       </c>
       <c r="B184">
-        <v>5200</v>
+        <v>5116.5</v>
       </c>
       <c r="C184" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D184" t="s">
-        <v>133</v>
+        <v>34</v>
       </c>
       <c r="E184" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="F184">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4459,19 +4468,19 @@
         <v>29</v>
       </c>
       <c r="B185">
-        <v>5306</v>
+        <v>5184</v>
       </c>
       <c r="C185" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D185" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E185" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F185">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4479,16 +4488,16 @@
         <v>29</v>
       </c>
       <c r="B186">
-        <v>5445</v>
+        <v>5200</v>
       </c>
       <c r="C186" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="D186" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E186" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="F186">
         <v>1</v>
@@ -4499,19 +4508,19 @@
         <v>29</v>
       </c>
       <c r="B187">
-        <v>5573.86</v>
+        <v>5306</v>
       </c>
       <c r="C187" t="s">
-        <v>92</v>
+        <v>135</v>
       </c>
       <c r="D187" t="s">
         <v>38</v>
       </c>
       <c r="E187" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="F187">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4519,13 +4528,13 @@
         <v>29</v>
       </c>
       <c r="B188">
-        <v>5655.24</v>
+        <v>5445</v>
       </c>
       <c r="C188" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="D188" t="s">
-        <v>68</v>
+        <v>124</v>
       </c>
       <c r="E188" t="s">
         <v>9</v>
@@ -4539,19 +4548,19 @@
         <v>29</v>
       </c>
       <c r="B189">
-        <v>5665.5</v>
+        <v>5573.86</v>
       </c>
       <c r="C189" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="D189" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E189" t="s">
         <v>45</v>
       </c>
       <c r="F189">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4559,19 +4568,19 @@
         <v>29</v>
       </c>
       <c r="B190">
-        <v>5854.35</v>
+        <v>5655.24</v>
       </c>
       <c r="C190" t="s">
-        <v>135</v>
+        <v>89</v>
       </c>
       <c r="D190" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="E190" t="s">
         <v>9</v>
       </c>
       <c r="F190">
-        <v>42</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4579,19 +4588,19 @@
         <v>29</v>
       </c>
       <c r="B191">
-        <v>6307.2</v>
+        <v>5665.5</v>
       </c>
       <c r="C191" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="D191" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E191" t="s">
         <v>45</v>
       </c>
       <c r="F191">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4599,19 +4608,19 @@
         <v>29</v>
       </c>
       <c r="B192">
-        <v>6307.2</v>
+        <v>5854.35</v>
       </c>
       <c r="C192" t="s">
-        <v>67</v>
+        <v>136</v>
       </c>
       <c r="D192" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E192" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="F192">
-        <v>128</v>
+        <v>42</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4619,19 +4628,19 @@
         <v>29</v>
       </c>
       <c r="B193">
-        <v>6353.11</v>
+        <v>6307.2</v>
       </c>
       <c r="C193" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="D193" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E193" t="s">
         <v>45</v>
       </c>
       <c r="F193">
-        <v>45</v>
+        <v>8</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4639,19 +4648,19 @@
         <v>29</v>
       </c>
       <c r="B194">
-        <v>6500</v>
+        <v>6307.2</v>
       </c>
       <c r="C194" t="s">
-        <v>136</v>
+        <v>67</v>
       </c>
       <c r="D194" t="s">
-        <v>133</v>
+        <v>44</v>
       </c>
       <c r="E194" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F194">
-        <v>33</v>
+        <v>128</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4659,19 +4668,19 @@
         <v>29</v>
       </c>
       <c r="B195">
-        <v>6630</v>
+        <v>6353.11</v>
       </c>
       <c r="C195" t="s">
-        <v>122</v>
+        <v>58</v>
       </c>
       <c r="D195" t="s">
-        <v>123</v>
+        <v>34</v>
       </c>
       <c r="E195" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="F195">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4679,19 +4688,19 @@
         <v>29</v>
       </c>
       <c r="B196">
-        <v>6771.51</v>
+        <v>6500</v>
       </c>
       <c r="C196" t="s">
-        <v>90</v>
+        <v>137</v>
       </c>
       <c r="D196" t="s">
-        <v>47</v>
+        <v>134</v>
       </c>
       <c r="E196" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="F196">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4699,19 +4708,19 @@
         <v>29</v>
       </c>
       <c r="B197">
-        <v>6798.6</v>
+        <v>6630</v>
       </c>
       <c r="C197" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="D197" t="s">
-        <v>38</v>
+        <v>124</v>
       </c>
       <c r="E197" t="s">
         <v>9</v>
       </c>
       <c r="F197">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4719,19 +4728,19 @@
         <v>29</v>
       </c>
       <c r="B198">
-        <v>7008</v>
+        <v>6771.51</v>
       </c>
       <c r="C198" t="s">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="D198" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E198" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="F198">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4739,19 +4748,19 @@
         <v>29</v>
       </c>
       <c r="B199">
-        <v>7201</v>
+        <v>6798.6</v>
       </c>
       <c r="C199" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D199" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E199" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="F199">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4759,19 +4768,19 @@
         <v>29</v>
       </c>
       <c r="B200">
-        <v>7360</v>
+        <v>7008</v>
       </c>
       <c r="C200" t="s">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="D200" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E200" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F200">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4779,19 +4788,19 @@
         <v>29</v>
       </c>
       <c r="B201">
-        <v>7450</v>
+        <v>7201</v>
       </c>
       <c r="C201" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="D201" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E201" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="F201">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4799,19 +4808,19 @@
         <v>29</v>
       </c>
       <c r="B202">
-        <v>7497.35</v>
+        <v>7360</v>
       </c>
       <c r="C202" t="s">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="D202" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E202" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="F202">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4819,19 +4828,19 @@
         <v>29</v>
       </c>
       <c r="B203">
-        <v>7500</v>
+        <v>7450</v>
       </c>
       <c r="C203" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="D203" t="s">
-        <v>123</v>
+        <v>38</v>
       </c>
       <c r="E203" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="F203">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4839,7 +4848,7 @@
         <v>29</v>
       </c>
       <c r="B204">
-        <v>7554</v>
+        <v>7497.35</v>
       </c>
       <c r="C204" t="s">
         <v>138</v>
@@ -4848,10 +4857,10 @@
         <v>47</v>
       </c>
       <c r="E204" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F204">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4859,19 +4868,19 @@
         <v>29</v>
       </c>
       <c r="B205">
-        <v>7580</v>
+        <v>7500</v>
       </c>
       <c r="C205" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="D205" t="s">
-        <v>47</v>
+        <v>124</v>
       </c>
       <c r="E205" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="F205">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4879,19 +4888,19 @@
         <v>29</v>
       </c>
       <c r="B206">
-        <v>7692.96</v>
+        <v>7554</v>
       </c>
       <c r="C206" t="s">
-        <v>53</v>
+        <v>139</v>
       </c>
       <c r="D206" t="s">
         <v>47</v>
       </c>
       <c r="E206" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="F206">
-        <v>99</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4899,19 +4908,19 @@
         <v>29</v>
       </c>
       <c r="B207">
-        <v>7920</v>
+        <v>7580</v>
       </c>
       <c r="C207" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="D207" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="E207" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="F207">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4919,19 +4928,19 @@
         <v>29</v>
       </c>
       <c r="B208">
-        <v>8330</v>
+        <v>7692.96</v>
       </c>
       <c r="C208" t="s">
-        <v>105</v>
+        <v>53</v>
       </c>
       <c r="D208" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E208" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="F208">
-        <v>7</v>
+        <v>99</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4939,19 +4948,19 @@
         <v>29</v>
       </c>
       <c r="B209">
-        <v>8870.4</v>
+        <v>7920</v>
       </c>
       <c r="C209" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D209" t="s">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="E209" t="s">
         <v>54</v>
       </c>
       <c r="F209">
-        <v>121</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4959,19 +4968,19 @@
         <v>29</v>
       </c>
       <c r="B210">
-        <v>9084.65</v>
+        <v>8330</v>
       </c>
       <c r="C210" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="D210" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E210" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="F210">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4979,19 +4988,19 @@
         <v>29</v>
       </c>
       <c r="B211">
-        <v>9307.2</v>
+        <v>8870.4</v>
       </c>
       <c r="C211" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D211" t="s">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="E211" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="F211">
-        <v>4</v>
+        <v>121</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4999,19 +5008,19 @@
         <v>29</v>
       </c>
       <c r="B212">
-        <v>9817.2</v>
+        <v>9084.65</v>
       </c>
       <c r="C212" t="s">
-        <v>139</v>
+        <v>51</v>
       </c>
       <c r="D212" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E212" t="s">
         <v>9</v>
       </c>
       <c r="F212">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5019,19 +5028,19 @@
         <v>29</v>
       </c>
       <c r="B213">
-        <v>10288.91</v>
+        <v>9307.2</v>
       </c>
       <c r="C213" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="D213" t="s">
-        <v>34</v>
+        <v>121</v>
       </c>
       <c r="E213" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="F213">
-        <v>56</v>
+        <v>4</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5039,7 +5048,7 @@
         <v>29</v>
       </c>
       <c r="B214">
-        <v>11331</v>
+        <v>9817.2</v>
       </c>
       <c r="C214" t="s">
         <v>140</v>
@@ -5051,7 +5060,7 @@
         <v>9</v>
       </c>
       <c r="F214">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5059,19 +5068,19 @@
         <v>29</v>
       </c>
       <c r="B215">
-        <v>11350.5</v>
+        <v>10288.91</v>
       </c>
       <c r="C215" t="s">
-        <v>141</v>
+        <v>72</v>
       </c>
       <c r="D215" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E215" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="F215">
-        <v>14</v>
+        <v>56</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5079,19 +5088,19 @@
         <v>29</v>
       </c>
       <c r="B216">
-        <v>11370</v>
+        <v>11331</v>
       </c>
       <c r="C216" t="s">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="D216" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E216" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="F216">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5099,19 +5108,19 @@
         <v>29</v>
       </c>
       <c r="B217">
-        <v>11398</v>
+        <v>11350.5</v>
       </c>
       <c r="C217" t="s">
-        <v>50</v>
+        <v>142</v>
       </c>
       <c r="D217" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E217" t="s">
         <v>9</v>
       </c>
       <c r="F217">
-        <v>34</v>
+        <v>14</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5119,19 +5128,19 @@
         <v>29</v>
       </c>
       <c r="B218">
-        <v>12696.5</v>
+        <v>11370</v>
       </c>
       <c r="C218" t="s">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="D218" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E218" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="F218">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5139,19 +5148,19 @@
         <v>29</v>
       </c>
       <c r="B219">
-        <v>12709.38</v>
+        <v>11398</v>
       </c>
       <c r="C219" t="s">
-        <v>114</v>
+        <v>50</v>
       </c>
       <c r="D219" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E219" t="s">
         <v>9</v>
       </c>
       <c r="F219">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5159,10 +5168,10 @@
         <v>29</v>
       </c>
       <c r="B220">
-        <v>13075.5</v>
+        <v>12696.5</v>
       </c>
       <c r="C220" t="s">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="D220" t="s">
         <v>38</v>
@@ -5171,7 +5180,7 @@
         <v>9</v>
       </c>
       <c r="F220">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5179,19 +5188,19 @@
         <v>29</v>
       </c>
       <c r="B221">
-        <v>13248</v>
+        <v>12709.38</v>
       </c>
       <c r="C221" t="s">
-        <v>63</v>
+        <v>115</v>
       </c>
       <c r="D221" t="s">
         <v>38</v>
       </c>
       <c r="E221" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="F221">
-        <v>4</v>
+        <v>43</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5199,19 +5208,19 @@
         <v>29</v>
       </c>
       <c r="B222">
-        <v>13320</v>
+        <v>13075.5</v>
       </c>
       <c r="C222" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="D222" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E222" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="F222">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5219,19 +5228,19 @@
         <v>29</v>
       </c>
       <c r="B223">
-        <v>13611.11</v>
+        <v>13248</v>
       </c>
       <c r="C223" t="s">
-        <v>144</v>
+        <v>63</v>
       </c>
       <c r="D223" t="s">
         <v>38</v>
       </c>
       <c r="E223" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F223">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5239,19 +5248,19 @@
         <v>29</v>
       </c>
       <c r="B224">
-        <v>14150</v>
+        <v>13320</v>
       </c>
       <c r="C224" t="s">
-        <v>37</v>
+        <v>144</v>
       </c>
       <c r="D224" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E224" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="F224">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5259,19 +5268,19 @@
         <v>29</v>
       </c>
       <c r="B225">
-        <v>14352.6</v>
+        <v>13611.11</v>
       </c>
       <c r="C225" t="s">
-        <v>101</v>
+        <v>145</v>
       </c>
       <c r="D225" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E225" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F225">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5279,19 +5288,19 @@
         <v>29</v>
       </c>
       <c r="B226">
-        <v>14512.5</v>
+        <v>14150</v>
       </c>
       <c r="C226" t="s">
-        <v>145</v>
+        <v>37</v>
       </c>
       <c r="D226" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E226" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="F226">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5299,19 +5308,19 @@
         <v>29</v>
       </c>
       <c r="B227">
-        <v>14818.39</v>
+        <v>14352.6</v>
       </c>
       <c r="C227" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="D227" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="E227" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="F227">
-        <v>91</v>
+        <v>3</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5319,19 +5328,19 @@
         <v>29</v>
       </c>
       <c r="B228">
-        <v>15485</v>
+        <v>14512.5</v>
       </c>
       <c r="C228" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="D228" t="s">
-        <v>123</v>
+        <v>47</v>
       </c>
       <c r="E228" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="F228">
-        <v>-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5339,19 +5348,19 @@
         <v>29</v>
       </c>
       <c r="B229">
-        <v>16180.2</v>
+        <v>14818.39</v>
       </c>
       <c r="C229" t="s">
-        <v>139</v>
+        <v>70</v>
       </c>
       <c r="D229" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E229" t="s">
         <v>9</v>
       </c>
       <c r="F229">
-        <v>7</v>
+        <v>91</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5359,19 +5368,19 @@
         <v>29</v>
       </c>
       <c r="B230">
-        <v>18400</v>
+        <v>15485</v>
       </c>
       <c r="C230" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="D230" t="s">
-        <v>38</v>
+        <v>124</v>
       </c>
       <c r="E230" t="s">
         <v>9</v>
       </c>
       <c r="F230">
-        <v>0</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5379,19 +5388,19 @@
         <v>29</v>
       </c>
       <c r="B231">
-        <v>18950</v>
+        <v>16180.2</v>
       </c>
       <c r="C231" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D231" t="s">
-        <v>133</v>
+        <v>38</v>
       </c>
       <c r="E231" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="F231">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5399,19 +5408,19 @@
         <v>29</v>
       </c>
       <c r="B232">
-        <v>18950</v>
+        <v>18400</v>
       </c>
       <c r="C232" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D232" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E232" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="F232">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5419,19 +5428,19 @@
         <v>29</v>
       </c>
       <c r="B233">
-        <v>19550</v>
+        <v>18950</v>
       </c>
       <c r="C233" t="s">
-        <v>89</v>
+        <v>148</v>
       </c>
       <c r="D233" t="s">
-        <v>38</v>
+        <v>134</v>
       </c>
       <c r="E233" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F233">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5439,19 +5448,19 @@
         <v>29</v>
       </c>
       <c r="B234">
-        <v>19641.6</v>
+        <v>18950</v>
       </c>
       <c r="C234" t="s">
-        <v>107</v>
+        <v>149</v>
       </c>
       <c r="D234" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E234" t="s">
         <v>45</v>
       </c>
       <c r="F234">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5459,19 +5468,19 @@
         <v>29</v>
       </c>
       <c r="B235">
-        <v>19882.51</v>
+        <v>19550</v>
       </c>
       <c r="C235" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D235" t="s">
         <v>38</v>
       </c>
       <c r="E235" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="F235">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5479,19 +5488,19 @@
         <v>29</v>
       </c>
       <c r="B236">
-        <v>20608</v>
+        <v>19641.6</v>
       </c>
       <c r="C236" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D236" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E236" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5499,7 +5508,7 @@
         <v>29</v>
       </c>
       <c r="B237">
-        <v>20764</v>
+        <v>19882.51</v>
       </c>
       <c r="C237" t="s">
         <v>150</v>
@@ -5511,7 +5520,7 @@
         <v>9</v>
       </c>
       <c r="F237">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5519,19 +5528,19 @@
         <v>29</v>
       </c>
       <c r="B238">
-        <v>20773.5</v>
+        <v>20608</v>
       </c>
       <c r="C238" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="D238" t="s">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="E238" t="s">
         <v>54</v>
       </c>
       <c r="F238">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5539,19 +5548,19 @@
         <v>29</v>
       </c>
       <c r="B239">
-        <v>20800</v>
+        <v>20764</v>
       </c>
       <c r="C239" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="D239" t="s">
-        <v>133</v>
+        <v>38</v>
       </c>
       <c r="E239" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="F239">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5559,19 +5568,19 @@
         <v>29</v>
       </c>
       <c r="B240">
-        <v>21213.08</v>
+        <v>20773.5</v>
       </c>
       <c r="C240" t="s">
-        <v>40</v>
+        <v>136</v>
       </c>
       <c r="D240" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="E240" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="F240">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5579,19 +5588,19 @@
         <v>29</v>
       </c>
       <c r="B241">
-        <v>22080</v>
+        <v>20800</v>
       </c>
       <c r="C241" t="s">
-        <v>39</v>
+        <v>133</v>
       </c>
       <c r="D241" t="s">
-        <v>38</v>
+        <v>134</v>
       </c>
       <c r="E241" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="F241">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5599,19 +5608,19 @@
         <v>29</v>
       </c>
       <c r="B242">
-        <v>22740</v>
+        <v>21213.08</v>
       </c>
       <c r="C242" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D242" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E242" t="s">
         <v>42</v>
       </c>
       <c r="F242">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -5619,19 +5628,19 @@
         <v>29</v>
       </c>
       <c r="B243">
-        <v>23877</v>
+        <v>21604.8</v>
       </c>
       <c r="C243" t="s">
-        <v>111</v>
+        <v>152</v>
       </c>
       <c r="D243" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E243" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="F243">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -5639,16 +5648,16 @@
         <v>29</v>
       </c>
       <c r="B244">
-        <v>24331.16</v>
+        <v>22080</v>
       </c>
       <c r="C244" t="s">
-        <v>151</v>
+        <v>39</v>
       </c>
       <c r="D244" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E244" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="F244">
         <v>7</v>
@@ -5659,19 +5668,19 @@
         <v>29</v>
       </c>
       <c r="B245">
-        <v>24635</v>
+        <v>22740</v>
       </c>
       <c r="C245" t="s">
-        <v>152</v>
+        <v>100</v>
       </c>
       <c r="D245" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E245" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="F245">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -5679,19 +5688,19 @@
         <v>29</v>
       </c>
       <c r="B246">
-        <v>24676</v>
+        <v>23877</v>
       </c>
       <c r="C246" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="D246" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="E246" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="F246">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -5699,19 +5708,19 @@
         <v>29</v>
       </c>
       <c r="B247">
-        <v>25373.75</v>
+        <v>24331.16</v>
       </c>
       <c r="C247" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="D247" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E247" t="s">
-        <v>153</v>
+        <v>42</v>
       </c>
       <c r="F247">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -5719,19 +5728,19 @@
         <v>29</v>
       </c>
       <c r="B248">
-        <v>25546.5</v>
+        <v>24635</v>
       </c>
       <c r="C248" t="s">
-        <v>48</v>
+        <v>154</v>
       </c>
       <c r="D248" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E248" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="F248">
-        <v>100</v>
+        <v>18</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -5739,19 +5748,19 @@
         <v>29</v>
       </c>
       <c r="B249">
-        <v>27000</v>
+        <v>24676</v>
       </c>
       <c r="C249" t="s">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="D249" t="s">
-        <v>123</v>
+        <v>68</v>
       </c>
       <c r="E249" t="s">
         <v>9</v>
       </c>
       <c r="F249">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -5759,16 +5768,16 @@
         <v>29</v>
       </c>
       <c r="B250">
-        <v>27288</v>
+        <v>25373.75</v>
       </c>
       <c r="C250" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="D250" t="s">
         <v>34</v>
       </c>
       <c r="E250" t="s">
-        <v>54</v>
+        <v>155</v>
       </c>
       <c r="F250">
         <v>6</v>
@@ -5779,19 +5788,19 @@
         <v>29</v>
       </c>
       <c r="B251">
-        <v>29624</v>
+        <v>25546.5</v>
       </c>
       <c r="C251" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="D251" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E251" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F251">
-        <v>4</v>
+        <v>100</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -5799,19 +5808,19 @@
         <v>29</v>
       </c>
       <c r="B252">
-        <v>30320</v>
+        <v>27000</v>
       </c>
       <c r="C252" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D252" t="s">
-        <v>38</v>
+        <v>124</v>
       </c>
       <c r="E252" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="F252">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -5819,19 +5828,19 @@
         <v>29</v>
       </c>
       <c r="B253">
-        <v>32453</v>
+        <v>27288</v>
       </c>
       <c r="C253" t="s">
-        <v>89</v>
+        <v>131</v>
       </c>
       <c r="D253" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E253" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="F253">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -5839,19 +5848,19 @@
         <v>29</v>
       </c>
       <c r="B254">
-        <v>33993</v>
+        <v>29624</v>
       </c>
       <c r="C254" t="s">
-        <v>138</v>
+        <v>63</v>
       </c>
       <c r="D254" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E254" t="s">
         <v>42</v>
       </c>
       <c r="F254">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -5859,19 +5868,19 @@
         <v>29</v>
       </c>
       <c r="B255">
-        <v>37696.65</v>
+        <v>30320</v>
       </c>
       <c r="C255" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="D255" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E255" t="s">
         <v>45</v>
       </c>
       <c r="F255">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -5879,19 +5888,19 @@
         <v>29</v>
       </c>
       <c r="B256">
-        <v>37800</v>
+        <v>32453</v>
       </c>
       <c r="C256" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D256" t="s">
-        <v>123</v>
+        <v>38</v>
       </c>
       <c r="E256" t="s">
         <v>9</v>
       </c>
       <c r="F256">
-        <v>29</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -5899,19 +5908,19 @@
         <v>29</v>
       </c>
       <c r="B257">
-        <v>39157.2</v>
+        <v>33993</v>
       </c>
       <c r="C257" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="D257" t="s">
-        <v>123</v>
+        <v>47</v>
       </c>
       <c r="E257" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="F257">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -5919,19 +5928,19 @@
         <v>29</v>
       </c>
       <c r="B258">
-        <v>40077.5</v>
+        <v>37696.65</v>
       </c>
       <c r="C258" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="D258" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E258" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="F258">
-        <v>36</v>
+        <v>14</v>
       </c>
     </row>
     <row r="259" spans="1:6">
@@ -5939,19 +5948,19 @@
         <v>29</v>
       </c>
       <c r="B259">
-        <v>40420.2</v>
+        <v>37800</v>
       </c>
       <c r="C259" t="s">
-        <v>157</v>
+        <v>88</v>
       </c>
       <c r="D259" t="s">
-        <v>47</v>
+        <v>124</v>
       </c>
       <c r="E259" t="s">
         <v>9</v>
       </c>
       <c r="F259">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -5959,16 +5968,16 @@
         <v>29</v>
       </c>
       <c r="B260">
-        <v>44160</v>
+        <v>38903.04</v>
       </c>
       <c r="C260" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="D260" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E260" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F260">
         <v>3</v>
@@ -5979,19 +5988,19 @@
         <v>29</v>
       </c>
       <c r="B261">
-        <v>54556.05</v>
+        <v>39157.2</v>
       </c>
       <c r="C261" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="D261" t="s">
-        <v>47</v>
+        <v>124</v>
       </c>
       <c r="E261" t="s">
         <v>9</v>
       </c>
       <c r="F261">
-        <v>-5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:6">
@@ -5999,19 +6008,19 @@
         <v>29</v>
       </c>
       <c r="B262">
-        <v>56655</v>
+        <v>40077.5</v>
       </c>
       <c r="C262" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="D262" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E262" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="F262">
-        <v>2</v>
+        <v>36</v>
       </c>
     </row>
     <row r="263" spans="1:6">
@@ -6019,19 +6028,19 @@
         <v>29</v>
       </c>
       <c r="B263">
-        <v>64000</v>
+        <v>40420.2</v>
       </c>
       <c r="C263" t="s">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="D263" t="s">
-        <v>133</v>
+        <v>47</v>
       </c>
       <c r="E263" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="F263">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:6">
@@ -6039,19 +6048,19 @@
         <v>29</v>
       </c>
       <c r="B264">
-        <v>75000</v>
+        <v>44160</v>
       </c>
       <c r="C264" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="D264" t="s">
-        <v>123</v>
+        <v>38</v>
       </c>
       <c r="E264" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="F264">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="265" spans="1:6">
@@ -6059,19 +6068,19 @@
         <v>29</v>
       </c>
       <c r="B265">
-        <v>75000</v>
+        <v>54556.05</v>
       </c>
       <c r="C265" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="D265" t="s">
-        <v>123</v>
+        <v>47</v>
       </c>
       <c r="E265" t="s">
         <v>9</v>
       </c>
       <c r="F265">
-        <v>29</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="266" spans="1:6">
@@ -6079,19 +6088,19 @@
         <v>29</v>
       </c>
       <c r="B266">
-        <v>77027</v>
+        <v>56655</v>
       </c>
       <c r="C266" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="D266" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E266" t="s">
         <v>42</v>
       </c>
       <c r="F266">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:6">
@@ -6099,19 +6108,19 @@
         <v>29</v>
       </c>
       <c r="B267">
-        <v>78901.2</v>
+        <v>64000</v>
       </c>
       <c r="C267" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="D267" t="s">
-        <v>47</v>
+        <v>134</v>
       </c>
       <c r="E267" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="F267">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="268" spans="1:6">
@@ -6119,19 +6128,19 @@
         <v>29</v>
       </c>
       <c r="B268">
-        <v>80779.8</v>
+        <v>75000</v>
       </c>
       <c r="C268" t="s">
-        <v>33</v>
+        <v>123</v>
       </c>
       <c r="D268" t="s">
-        <v>47</v>
+        <v>124</v>
       </c>
       <c r="E268" t="s">
         <v>9</v>
       </c>
       <c r="F268">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:6">
@@ -6139,19 +6148,19 @@
         <v>29</v>
       </c>
       <c r="B269">
-        <v>81360</v>
+        <v>75000</v>
       </c>
       <c r="C269" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="D269" t="s">
-        <v>38</v>
+        <v>124</v>
       </c>
       <c r="E269" t="s">
         <v>9</v>
       </c>
       <c r="F269">
-        <v>1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="270" spans="1:6">
@@ -6159,19 +6168,19 @@
         <v>29</v>
       </c>
       <c r="B270">
-        <v>86274.9</v>
+        <v>77027</v>
       </c>
       <c r="C270" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D270" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E270" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F270">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="271" spans="1:6">
@@ -6179,19 +6188,19 @@
         <v>29</v>
       </c>
       <c r="B271">
-        <v>105000</v>
+        <v>78901.2</v>
       </c>
       <c r="C271" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="D271" t="s">
-        <v>123</v>
+        <v>47</v>
       </c>
       <c r="E271" t="s">
         <v>9</v>
       </c>
       <c r="F271">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="272" spans="1:6">
@@ -6199,19 +6208,19 @@
         <v>29</v>
       </c>
       <c r="B272">
-        <v>115009.65</v>
+        <v>80779.8</v>
       </c>
       <c r="C272" t="s">
-        <v>159</v>
+        <v>33</v>
       </c>
       <c r="D272" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E272" t="s">
         <v>9</v>
       </c>
       <c r="F272">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="273" spans="1:6">
@@ -6219,10 +6228,10 @@
         <v>29</v>
       </c>
       <c r="B273">
-        <v>135872.5</v>
+        <v>81360</v>
       </c>
       <c r="C273" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="D273" t="s">
         <v>38</v>
@@ -6239,19 +6248,19 @@
         <v>29</v>
       </c>
       <c r="B274">
-        <v>138714</v>
+        <v>86274.9</v>
       </c>
       <c r="C274" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D274" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="E274" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F274">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:6">
@@ -6259,19 +6268,19 @@
         <v>29</v>
       </c>
       <c r="B275">
-        <v>153446.4</v>
+        <v>105000</v>
       </c>
       <c r="C275" t="s">
-        <v>161</v>
+        <v>88</v>
       </c>
       <c r="D275" t="s">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="E275" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="F275">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:6">
@@ -6279,18 +6288,118 @@
         <v>29</v>
       </c>
       <c r="B276">
+        <v>115009.65</v>
+      </c>
+      <c r="C276" t="s">
+        <v>162</v>
+      </c>
+      <c r="D276" t="s">
+        <v>38</v>
+      </c>
+      <c r="E276" t="s">
+        <v>9</v>
+      </c>
+      <c r="F276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6">
+      <c r="A277" t="s">
+        <v>29</v>
+      </c>
+      <c r="B277">
+        <v>135872.5</v>
+      </c>
+      <c r="C277" t="s">
+        <v>89</v>
+      </c>
+      <c r="D277" t="s">
+        <v>38</v>
+      </c>
+      <c r="E277" t="s">
+        <v>9</v>
+      </c>
+      <c r="F277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6">
+      <c r="A278" t="s">
+        <v>29</v>
+      </c>
+      <c r="B278">
+        <v>138714</v>
+      </c>
+      <c r="C278" t="s">
+        <v>163</v>
+      </c>
+      <c r="D278" t="s">
+        <v>82</v>
+      </c>
+      <c r="E278" t="s">
+        <v>54</v>
+      </c>
+      <c r="F278">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6">
+      <c r="A279" t="s">
+        <v>29</v>
+      </c>
+      <c r="B279">
+        <v>153446.4</v>
+      </c>
+      <c r="C279" t="s">
+        <v>164</v>
+      </c>
+      <c r="D279" t="s">
+        <v>82</v>
+      </c>
+      <c r="E279" t="s">
+        <v>54</v>
+      </c>
+      <c r="F279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6">
+      <c r="A280" t="s">
+        <v>29</v>
+      </c>
+      <c r="B280">
+        <v>165054.9</v>
+      </c>
+      <c r="C280" t="s">
+        <v>103</v>
+      </c>
+      <c r="D280" t="s">
+        <v>38</v>
+      </c>
+      <c r="E280" t="s">
+        <v>9</v>
+      </c>
+      <c r="F280">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6">
+      <c r="A281" t="s">
+        <v>29</v>
+      </c>
+      <c r="B281">
         <v>353100</v>
       </c>
-      <c r="C276" t="s">
+      <c r="C281" t="s">
         <v>88</v>
       </c>
-      <c r="D276" t="s">
-        <v>123</v>
-      </c>
-      <c r="E276" t="s">
-        <v>9</v>
-      </c>
-      <c r="F276">
+      <c r="D281" t="s">
+        <v>124</v>
+      </c>
+      <c r="E281" t="s">
+        <v>9</v>
+      </c>
+      <c r="F281">
         <v>8</v>
       </c>
     </row>
